--- a/src/test/java/data/ReservationDetails.xlsx
+++ b/src/test/java/data/ReservationDetails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nagham - Study\Booking_Sumerage\src\test\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NaghamStudy\Booking_Sumerage\src\test\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{699BA34F-65A0-4DC2-92AC-34AE4C69864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F3B9FC-DBE2-48D3-A796-BC3C58CAC247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC701116-1E54-4B5A-B3B9-7E3F23AAE39F}"/>
   </bookViews>
@@ -33,15 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Sofitel Cairo Nile El Gezirah, Cairo, Cairo Governorate, Egypt</t>
-  </si>
-  <si>
-    <t>Sun 1 Jan</t>
-  </si>
-  <si>
-    <t>Tue 31 Jan</t>
+    <t>Alexandria</t>
   </si>
 </sst>
 </file>
@@ -77,8 +71,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,25 +396,26 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="2">
+        <v>44652</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" s="2">
+        <v>44665</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/data/ReservationDetails.xlsx
+++ b/src/test/java/data/ReservationDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NaghamStudy\Booking_Sumerage\src\test\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F3B9FC-DBE2-48D3-A796-BC3C58CAC247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6529567-1726-477E-8FE5-D33194E3145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC701116-1E54-4B5A-B3B9-7E3F23AAE39F}"/>
   </bookViews>
@@ -396,13 +396,13 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="C1" s="2">
-        <v>44665</v>
+        <v>45030</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/data/ReservationDetails.xlsx
+++ b/src/test/java/data/ReservationDetails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NaghamStudy\Booking_Sumerage\src\test\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\QC\Automation\Booking.com\src\test\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6529567-1726-477E-8FE5-D33194E3145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9478673A-7ECC-4449-A3CA-F89169AEC47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC701116-1E54-4B5A-B3B9-7E3F23AAE39F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC701116-1E54-4B5A-B3B9-7E3F23AAE39F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Alexandria</t>
+  </si>
+  <si>
+    <t>January</t>
   </si>
 </sst>
 </file>
@@ -71,12 +74,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -393,32 +402,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268BC709-A70C-41C3-A3F7-D5BF38A24C3C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="3"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>45017</v>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>45030</v>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>